--- a/Documents/Prime_Fitness_eProject_Status_Report.xlsx
+++ b/Documents/Prime_Fitness_eProject_Status_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>e P r o j e c t s    S t a t u s    R e p o r t</t>
   </si>
@@ -115,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -140,6 +140,11 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -151,8 +156,11 @@
     </font>
     <font>
       <sz val="8.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
@@ -371,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -400,60 +408,60 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="2" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -477,11 +485,14 @@
     <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -501,7 +512,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1300,9 @@
       <c r="C19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1379,7 +1392,7 @@
       <c r="C22" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1473,7 +1486,9 @@
       <c r="C25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1500,10 +1515,10 @@
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1560,7 +1575,7 @@
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="38"/>
@@ -1590,10 +1605,10 @@
     <row r="29" ht="65.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1787,9 +1802,9 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1929,7 +1944,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="49"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2121,9 +2136,9 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2261,9 +2276,9 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2403,7 +2418,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="48"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
